--- a/admin/rekap_presensi.xlsx
+++ b/admin/rekap_presensi.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
   <si>
     <t>Tanggal</t>
   </si>
@@ -74,25 +74,31 @@
     <t>Selasa, 13 Juni 2023</t>
   </si>
   <si>
-    <t>11:36:56</t>
+    <t>Rabu, 14 Juni 2023</t>
+  </si>
+  <si>
+    <t>Kamis, 15 Juni 2023</t>
+  </si>
+  <si>
+    <t>16:55:57</t>
+  </si>
+  <si>
+    <t>Izin</t>
+  </si>
+  <si>
+    <t>Jumat, 16 Juni 2023</t>
+  </si>
+  <si>
+    <t>Sabtu, 17 Juni 2023</t>
+  </si>
+  <si>
+    <t>09:48:09</t>
   </si>
   <si>
     <t>Hadir</t>
   </si>
   <si>
-    <t>13 kilometer, TERLAMBAT 3 jam 37 menit</t>
-  </si>
-  <si>
-    <t>Rabu, 14 Juni 2023</t>
-  </si>
-  <si>
-    <t>Kamis, 15 Juni 2023</t>
-  </si>
-  <si>
-    <t>Jumat, 16 Juni 2023</t>
-  </si>
-  <si>
-    <t>Sabtu, 17 Juni 2023</t>
+    <t>33 kilometer,&lt;br&gt;TERLAMBAT 2 jam 34 menit</t>
   </si>
   <si>
     <t>Minggu, 18 Juni 2023</t>
@@ -132,9 +138,6 @@
   </si>
   <si>
     <t>Jumat, 30 Juni 2023</t>
-  </si>
-  <si>
-    <t>Izin</t>
   </si>
   <si>
     <t>Sakit</t>
@@ -662,20 +665,14 @@
       <c r="A14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
-      </c>
+      <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>21</v>
-      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -684,16 +681,20 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -702,16 +703,22 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
+      <c r="D18" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -722,7 +729,7 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -731,7 +738,7 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -740,7 +747,7 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -749,7 +756,7 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -758,7 +765,7 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -767,7 +774,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -776,7 +783,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -787,7 +794,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -796,7 +803,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -805,7 +812,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -814,7 +821,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -823,7 +830,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -832,7 +839,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B33" s="2">
         <v>1</v>
@@ -840,15 +847,15 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="B34" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
         <v>0</v>
@@ -856,10 +863,10 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
